--- a/single_brace/L30x30x4xS235_l=1.60/nonlin.xlsx
+++ b/single_brace/L30x30x4xS235_l=1.60/nonlin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9D6E3F19-CAAD-4ED1-BBFD-EBB27A18D15B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{31E654D6-F7FA-4F97-8B64-A4E799B94B45}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -91,6 +87,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Compression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1644,6 +1665,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tension</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3197,6 +3243,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MultiLinear</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Elastic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5197,16 +5272,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>260488</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>568601</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66053</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5581,8 +5656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEB2E35-7A3C-46E5-8E82-03FDC5E767E8}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8060,7 +8135,7 @@
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B201"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10536,7 +10611,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
